--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>Final Publish Report for the month of MMMM</t>
+  </si>
+  <si>
+    <t>Sender Mail ID</t>
+  </si>
+  <si>
+    <t>Receiver Mail ID</t>
   </si>
 </sst>
 </file>
@@ -237,12 +243,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -257,19 +269,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -633,25 +647,29 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+    </row>
     <row r="4" spans="1:26" ht="30">
-      <c r="A4" t="s">
+      <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -660,23 +678,29 @@
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -684,7 +708,7 @@
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -692,7 +716,7 @@
       <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -700,7 +724,7 @@
       <c r="A11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -708,7 +732,7 @@
       <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -716,7 +740,7 @@
       <c r="A13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -724,7 +748,7 @@
       <c r="A14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>53</v>
       </c>
     </row>
@@ -732,7 +756,7 @@
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -740,7 +764,7 @@
       <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -748,12 +772,12 @@
       <c r="A17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B18" s="5"/>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" s="2" t="s">
